--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Fall.120920-4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Fall.120920-4.xlsx_with_dialog_acts.xlsx
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1571,12 +1571,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2537,12 +2537,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2747,12 +2747,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3213,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3805,12 +3805,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4019,12 +4019,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4061,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4313,12 +4313,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4481,12 +4481,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4565,12 +4565,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4649,12 +4649,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5111,12 +5111,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5321,12 +5321,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5405,12 +5405,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5493,12 +5493,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5535,12 +5535,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5577,12 +5577,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5703,12 +5703,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6249,12 +6249,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6501,12 +6501,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6669,12 +6669,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6711,12 +6711,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6841,12 +6841,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7049,12 +7049,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7091,12 +7091,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7175,12 +7175,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7259,12 +7259,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8687,12 +8687,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9065,12 +9065,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9191,12 +9191,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9951,12 +9951,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10287,12 +10287,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
